--- a/Team-Data/2012-13/12-30-2012-13.xlsx
+++ b/Team-Data/2012-13/12-30-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
@@ -789,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -801,7 +868,7 @@
         <v>13</v>
       </c>
       <c r="AW2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.467</v>
+        <v>0.483</v>
       </c>
       <c r="H3" t="n">
         <v>49</v>
@@ -866,55 +933,55 @@
         <v>36.7</v>
       </c>
       <c r="J3" t="n">
-        <v>79.59999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M3" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O3" t="n">
         <v>17</v>
       </c>
       <c r="P3" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.796</v>
+        <v>0.793</v>
       </c>
       <c r="R3" t="n">
         <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="T3" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="U3" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V3" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA3" t="n">
         <v>19.7</v>
@@ -923,16 +990,16 @@
         <v>95.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>-2.2</v>
+        <v>-1.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
@@ -944,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>6</v>
@@ -956,13 +1023,13 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>16</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>4</v>
@@ -980,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
@@ -989,19 +1056,19 @@
         <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>17</v>
       </c>
       <c r="BC3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
@@ -1126,10 +1193,10 @@
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1141,10 +1208,10 @@
         <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
@@ -1159,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
         <v>6</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
@@ -1341,7 +1408,7 @@
         <v>18</v>
       </c>
       <c r="AU5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1493,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
         <v>7</v>
@@ -1520,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1684,13 +1751,13 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>22</v>
@@ -1729,7 +1796,7 @@
         <v>24</v>
       </c>
       <c r="BC7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -1758,61 +1825,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.387</v>
+        <v>0.4</v>
       </c>
       <c r="H8" t="n">
         <v>49</v>
       </c>
       <c r="I8" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J8" t="n">
-        <v>83.40000000000001</v>
+        <v>83</v>
       </c>
       <c r="K8" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L8" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="M8" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.352</v>
+        <v>0.36</v>
       </c>
       <c r="O8" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="R8" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S8" t="n">
         <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U8" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V8" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
@@ -1821,31 +1888,31 @@
         <v>5.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z8" t="n">
         <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>-4.8</v>
+        <v>-4.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
@@ -1854,25 +1921,25 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK8" t="n">
         <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
         <v>8</v>
@@ -1884,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU8" t="n">
         <v>16</v>
@@ -1893,22 +1960,22 @@
         <v>27</v>
       </c>
       <c r="AW8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX8" t="n">
         <v>14</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>7</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>1.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
@@ -2051,10 +2118,10 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2081,10 +2148,10 @@
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.333</v>
+        <v>0.313</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J10" t="n">
         <v>81.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L10" t="n">
         <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="O10" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P10" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R10" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="S10" t="n">
         <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U10" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
@@ -2185,25 +2252,25 @@
         <v>5.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB10" t="n">
         <v>94.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>
@@ -2215,13 +2282,13 @@
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
@@ -2236,46 +2303,46 @@
         <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ10" t="n">
         <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
         <v>15</v>
       </c>
       <c r="AW10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB10" t="n">
         <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>4</v>
@@ -2415,13 +2482,13 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>1.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>9</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2788,10 +2855,10 @@
         <v>23</v>
       </c>
       <c r="AR13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.806</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,40 +2935,40 @@
         <v>38.8</v>
       </c>
       <c r="J14" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="L14" t="n">
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="O14" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P14" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.721</v>
       </c>
       <c r="R14" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S14" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T14" t="n">
         <v>41.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
         <v>14.5</v>
@@ -2910,25 +2977,25 @@
         <v>10.8</v>
       </c>
       <c r="X14" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>102.4</v>
+        <v>102.2</v>
       </c>
       <c r="AC14" t="n">
         <v>10.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,28 +3007,28 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -2988,19 +3055,19 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>2.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3128,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK15" t="n">
         <v>9</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3152,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS15" t="n">
         <v>5</v>
@@ -3164,7 +3231,7 @@
         <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3380,7 @@
         <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
@@ -3340,7 +3407,7 @@
         <v>21</v>
       </c>
       <c r="AT16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
         <v>20</v>
@@ -3358,7 +3425,7 @@
         <v>24</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>11</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>4.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>6</v>
@@ -3543,7 +3610,7 @@
         <v>9</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -3578,94 +3645,94 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>0.552</v>
+        <v>0.571</v>
       </c>
       <c r="H18" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I18" t="n">
         <v>36.9</v>
       </c>
       <c r="J18" t="n">
-        <v>85.7</v>
+        <v>86</v>
       </c>
       <c r="K18" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M18" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.336</v>
+        <v>0.331</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>42.9</v>
+        <v>43.3</v>
       </c>
       <c r="U18" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y18" t="n">
         <v>4.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH18" t="n">
         <v>19</v>
@@ -3680,10 +3747,10 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
         <v>25</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>24</v>
       </c>
       <c r="AN18" t="n">
         <v>27</v>
@@ -3692,28 +3759,28 @@
         <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
         <v>20</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU18" t="n">
         <v>13</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>15</v>
       </c>
       <c r="AV18" t="n">
         <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3725,7 +3792,7 @@
         <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -3853,7 +3920,7 @@
         <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
         <v>16</v>
@@ -3889,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="AU19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4044,7 +4111,7 @@
         <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
@@ -4068,13 +4135,13 @@
         <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
         <v>27</v>
@@ -4086,7 +4153,7 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>5.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO21" t="n">
         <v>23</v>
@@ -4274,7 +4341,7 @@
         <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4435,13 +4502,13 @@
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4453,7 +4520,7 @@
         <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
@@ -4590,7 +4657,7 @@
         <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
@@ -4614,7 +4681,7 @@
         <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>6</v>
@@ -4626,7 +4693,7 @@
         <v>29</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
         <v>11</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-2.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -4769,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>17</v>
@@ -4778,7 +4845,7 @@
         <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4939,7 +5006,7 @@
         <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
         <v>16</v>
@@ -4981,7 +5048,7 @@
         <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5130,10 +5197,10 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5151,7 +5218,7 @@
         <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR26" t="n">
         <v>11</v>
@@ -5160,7 +5227,7 @@
         <v>26</v>
       </c>
       <c r="AT26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
@@ -5187,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -5216,121 +5283,121 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
         <v>19</v>
       </c>
       <c r="G27" t="n">
-        <v>0.367</v>
+        <v>0.345</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.439</v>
+        <v>0.435</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M27" t="n">
         <v>19.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.364</v>
+        <v>0.359</v>
       </c>
       <c r="O27" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P27" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R27" t="n">
         <v>11.5</v>
       </c>
       <c r="S27" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T27" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V27" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W27" t="n">
         <v>8.1</v>
       </c>
       <c r="X27" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z27" t="n">
         <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5</v>
+        <v>-5.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="n">
         <v>23</v>
       </c>
-      <c r="AF27" t="n">
-        <v>22</v>
-      </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>20</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
         <v>16</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
         <v>19</v>
       </c>
       <c r="AP27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ27" t="n">
         <v>11</v>
@@ -5339,13 +5406,13 @@
         <v>16</v>
       </c>
       <c r="AS27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
         <v>10</v>
@@ -5354,22 +5421,22 @@
         <v>9</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>0.742</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
@@ -5416,43 +5483,43 @@
         <v>39.8</v>
       </c>
       <c r="J28" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L28" t="n">
         <v>8.9</v>
       </c>
       <c r="M28" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.393</v>
+        <v>0.392</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.794</v>
+        <v>0.791</v>
       </c>
       <c r="R28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T28" t="n">
         <v>42.1</v>
       </c>
       <c r="U28" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="V28" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W28" t="n">
         <v>8.800000000000001</v>
@@ -5461,22 +5528,22 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.6</v>
+        <v>105.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5506,22 +5573,22 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>15</v>
@@ -5536,7 +5603,7 @@
         <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5667,16 +5734,16 @@
         <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
@@ -5730,7 +5797,7 @@
         <v>19</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -5762,85 +5829,85 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>0.469</v>
+        <v>0.484</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J30" t="n">
         <v>82.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M30" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O30" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="P30" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R30" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T30" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U30" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X30" t="n">
         <v>6.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z30" t="n">
         <v>21.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.1</v>
+        <v>-0.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5852,13 +5919,13 @@
         <v>18</v>
       </c>
       <c r="AH30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI30" t="n">
         <v>17</v>
       </c>
-      <c r="AI30" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
@@ -5867,22 +5934,22 @@
         <v>18</v>
       </c>
       <c r="AM30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
         <v>20</v>
@@ -5891,28 +5958,28 @@
         <v>14</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV30" t="n">
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6040,7 +6107,7 @@
         <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6085,7 +6152,7 @@
         <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-30-2012-13</t>
+          <t>2012-12-30</t>
         </is>
       </c>
     </row>
